--- a/spreadsheets/tSTORe.xlsx
+++ b/spreadsheets/tSTORe.xlsx
@@ -1103,18 +1103,18 @@
         <v>7</v>
       </c>
       <c r="D2" s="3">
-        <v>145000.0</v>
+        <v>150500.0</v>
       </c>
       <c r="E2" s="4">
-        <f t="shared" ref="E2:E12" si="1">(D2 * 0.04) + D2</f>
-        <v>150800</v>
+        <f>(D2 * 0.01) + D2</f>
+        <v>152005</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>9</v>
       </c>
       <c r="B3" s="3" t="s">
@@ -1124,18 +1124,18 @@
         <v>7</v>
       </c>
       <c r="D3" s="3">
-        <v>123000.0</v>
+        <v>125000.0</v>
       </c>
       <c r="E3" s="4">
-        <f t="shared" si="1"/>
-        <v>127920</v>
+        <f t="shared" ref="E3:E10" si="1">(D3 * 0.04) + D3</f>
+        <v>130000</v>
       </c>
       <c r="F3" s="6" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="3" t="s">
@@ -1156,7 +1156,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1166,18 +1166,18 @@
         <v>7</v>
       </c>
       <c r="D5" s="3">
-        <v>127500.0</v>
+        <v>137000.0</v>
       </c>
       <c r="E5" s="4">
         <f t="shared" si="1"/>
-        <v>132600</v>
+        <v>142480</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -1187,18 +1187,18 @@
         <v>17</v>
       </c>
       <c r="D6" s="3">
-        <v>127700.0</v>
+        <v>135750.0</v>
       </c>
       <c r="E6" s="4">
         <f t="shared" si="1"/>
-        <v>132808</v>
+        <v>141180</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -1208,18 +1208,18 @@
         <v>7</v>
       </c>
       <c r="D7" s="3">
-        <v>98500.0</v>
+        <v>105700.0</v>
       </c>
       <c r="E7" s="4">
         <f t="shared" si="1"/>
-        <v>102440</v>
+        <v>109928</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>19</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -1229,18 +1229,18 @@
         <v>7</v>
       </c>
       <c r="D8" s="3">
-        <v>96000.0</v>
+        <v>105800.0</v>
       </c>
       <c r="E8" s="4">
         <f t="shared" si="1"/>
-        <v>99840</v>
+        <v>110032</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -1250,15 +1250,15 @@
         <v>7</v>
       </c>
       <c r="D9" s="3">
-        <v>85500.0</v>
+        <v>95500.0</v>
       </c>
       <c r="E9" s="4">
         <f t="shared" si="1"/>
-        <v>88920</v>
+        <v>99320</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -1268,39 +1268,39 @@
         <v>7</v>
       </c>
       <c r="D10" s="3">
-        <v>84700.0</v>
+        <v>95500.0</v>
       </c>
       <c r="E10" s="4">
         <f t="shared" si="1"/>
-        <v>88088</v>
+        <v>99320</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D11" s="3">
-        <v>90000.0</v>
+        <v>99000.0</v>
       </c>
       <c r="E11" s="4">
-        <f t="shared" si="1"/>
-        <v>93600</v>
+        <f>(D11 * 0.05) + D11</f>
+        <v>103950</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -1310,11 +1310,11 @@
         <v>7</v>
       </c>
       <c r="D12" s="3">
-        <v>87000.0</v>
+        <v>94900.0</v>
       </c>
       <c r="E12" s="4">
-        <f t="shared" si="1"/>
-        <v>90480</v>
+        <f>(D12 * 0.04) + D12</f>
+        <v>98696</v>
       </c>
       <c r="F12" s="6" t="s">
         <v>22</v>
